--- a/YSteam開発資料まとめ/進捗まとめシートexcel版.xlsx
+++ b/YSteam開発資料まとめ/進捗まとめシートexcel版.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yq199\Documents\prac\YSteam開発資料まとめ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{490D3773-CD48-4DA1-B2B9-2E5737C8394B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B22B11-A30A-4AF7-984F-051F2FFA0AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{B11F2C6E-A9A8-40BD-8B8B-0CC9E0DA5E6B}"/>
   </bookViews>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>昨日までの成果</t>
     <rPh sb="0" eb="2">
@@ -73,12 +71,67 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>DB設計書を書き終わりました</t>
+    <rPh sb="2" eb="5">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ありません</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実現する機能によって、ページをさらに充実させます。画面設計書と画面遷移図を完成させる</t>
+    <rPh sb="0" eb="2">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュウジツ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>セッケイショ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>センイズ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスクを完成できるように頑張ります</t>
+    <rPh sb="4" eb="6">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガンバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,7 +182,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,7 +198,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -447,29 +500,29 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.296875" customWidth="1"/>
     <col min="3" max="3" width="65.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="84.6" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="84.6" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="84.6" customHeight="1">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="84.6" customHeight="1">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -483,37 +536,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA7F52A3-B098-4350-94A8-A6DB677A5ED3}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.296875" customWidth="1"/>
     <col min="3" max="3" width="65.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="84.6" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="84.6" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="84.6" customHeight="1">
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="84.6" customHeight="1">
       <c r="B4" t="s">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -530,29 +595,29 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.296875" customWidth="1"/>
     <col min="3" max="3" width="65.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="84.6" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="84.6" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="84.6" customHeight="1">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="84.6" customHeight="1">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -571,29 +636,29 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.296875" customWidth="1"/>
     <col min="3" max="3" width="65.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="84.6" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="84.6" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="84.6" customHeight="1">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="84.6" customHeight="1">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -609,32 +674,32 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="2" max="2" width="15.296875" customWidth="1"/>
     <col min="3" max="3" width="65.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="84.6" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="84.6" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="84.6" customHeight="1">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="84.6" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="84.6" customHeight="1">
       <c r="B4" t="s">
         <v>3</v>
       </c>
